--- a/301409-hackathon-backend/Outreach Events Summary.xlsx
+++ b/301409-hackathon-backend/Outreach Events Summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>Event ID</t>
   </si>
@@ -271,7 +271,13 @@
 Friends and family welcome!</t>
   </si>
   <si>
-    <t>NameXXX</t>
+    <t>Gokul</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>Liraz</t>
   </si>
 </sst>
 </file>
@@ -288,6 +294,7 @@
       <sz val="11"/>
       <color rgb="FFCC0066"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -621,7 +628,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T9"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15"/>
@@ -754,10 +761,10 @@
       <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="1">
-        <v>301409</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="S2">
+        <v>458981</v>
+      </c>
+      <c r="T2" t="s">
         <v>83</v>
       </c>
       <c r="U2" s="1">
@@ -819,14 +826,14 @@
       <c r="R3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="1">
-        <v>301409</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>83</v>
+      <c r="S3">
+        <v>458977</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
       </c>
       <c r="U3" s="1">
-        <v>8956778526</v>
+        <v>8956778521</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="90">
@@ -884,14 +891,14 @@
       <c r="R4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="1">
-        <v>301409</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>83</v>
+      <c r="S4">
+        <v>458977</v>
+      </c>
+      <c r="T4" t="s">
+        <v>84</v>
       </c>
       <c r="U4" s="1">
-        <v>8956778526</v>
+        <v>8956778521</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="60">
@@ -949,14 +956,14 @@
       <c r="R5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="1">
-        <v>301409</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>83</v>
+      <c r="S5">
+        <v>458966</v>
+      </c>
+      <c r="T5" t="s">
+        <v>85</v>
       </c>
       <c r="U5" s="1">
-        <v>8956778526</v>
+        <v>9956778525</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="60">
@@ -1014,14 +1021,14 @@
       <c r="R6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="1">
-        <v>301409</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>83</v>
+      <c r="S6">
+        <v>458966</v>
+      </c>
+      <c r="T6" t="s">
+        <v>85</v>
       </c>
       <c r="U6" s="1">
-        <v>8956778526</v>
+        <v>9956778525</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="45">
@@ -1079,14 +1086,14 @@
       <c r="R7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="1">
-        <v>301409</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>83</v>
+      <c r="S7">
+        <v>458966</v>
+      </c>
+      <c r="T7" t="s">
+        <v>85</v>
       </c>
       <c r="U7" s="1">
-        <v>8956778526</v>
+        <v>9956778525</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="120">
@@ -1144,14 +1151,14 @@
       <c r="R8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="1">
-        <v>301409</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>83</v>
+      <c r="S8">
+        <v>458966</v>
+      </c>
+      <c r="T8" t="s">
+        <v>85</v>
       </c>
       <c r="U8" s="1">
-        <v>8956778526</v>
+        <v>9956778525</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="90">
@@ -1209,10 +1216,10 @@
       <c r="R9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="1">
-        <v>301409</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="S9">
+        <v>458981</v>
+      </c>
+      <c r="T9" t="s">
         <v>83</v>
       </c>
       <c r="U9" s="1">
